--- a/Data/Inputs/Config.xlsx
+++ b/Data/Inputs/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Key</t>
   </si>
@@ -109,6 +109,24 @@
   </si>
   <si>
     <t>invalid error while Core Performer processing  ,Please Conatct with admin</t>
+  </si>
+  <si>
+    <t>ACMEURL</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/home</t>
+  </si>
+  <si>
+    <t>SHAURL</t>
+  </si>
+  <si>
+    <t>http://www.sha1-online.com/</t>
+  </si>
+  <si>
+    <t>ACME_WORKITEAMS_URL</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items</t>
   </si>
 </sst>
 </file>
@@ -440,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -482,6 +500,30 @@
       </c>
       <c r="B4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -528,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
